--- a/fig-3/fig3.xlsx
+++ b/fig-3/fig3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24426"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="25600" windowHeight="16120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5860,11 +5860,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2139490120"/>
-        <c:axId val="2137948360"/>
+        <c:axId val="2075419544"/>
+        <c:axId val="2075428840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2139490120"/>
+        <c:axId val="2075419544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2000.0"/>
@@ -5910,14 +5910,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2137948360"/>
+        <c:crossAx val="2075428840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="500.0"/>
         <c:minorUnit val="100.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2137948360"/>
+        <c:axId val="2075428840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="40000.0"/>
@@ -5964,7 +5964,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2139490120"/>
+        <c:crossAx val="2075419544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10000.0"/>
@@ -6019,6 +6019,60 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1073133" cy="369332"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5410200" y="863600"/>
+          <a:ext cx="1073133" cy="369332"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="0" i="1">
+              <a:latin typeface="Arial"/>
+            </a:rPr>
+            <a:t>Zootaxa</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6347,7 +6401,7 @@
   <dimension ref="A1:B1911"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
